--- a/Data/Excel/Proto/GachaSchedule.xlsx
+++ b/Data/Excel/Proto/GachaSchedule.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B6C4A5-2702-43A7-955B-7039204F9362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C404631-26D5-4175-93DB-31C613CBB7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>int</t>
   </si>
@@ -69,6 +80,22 @@
   </si>
   <si>
     <t>PickupCookieNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 뽑기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>COOKIE_PICKUP_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>픽업 뽑기</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1003,60 +1030,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="2" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1064,24 +1104,53 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10250219</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1001001</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>1001</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1002001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>2001</v>
+      </c>
+      <c r="H5">
+        <v>6001</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/GachaSchedule.xlsx
+++ b/Data/Excel/Proto/GachaSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C404631-26D5-4175-93DB-31C613CBB7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE8972-7698-4ECD-BBA5-0D1FBB4931B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>int</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>픽업 뽑기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostTypeList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:enum:EObjType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostAmountList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>POINT_C_GACHA_NORMAL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_CASH</t>
+  </si>
+  <si>
+    <t>CntList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1030,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1042,9 +1069,12 @@
     <col min="2" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1069,8 +1099,26 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1143,26 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1104,7 +1170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10250219</v>
       </c>
@@ -1129,8 +1195,26 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1002001</v>
       </c>
@@ -1151,6 +1235,24 @@
       </c>
       <c r="H5">
         <v>6001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/GachaSchedule.xlsx
+++ b/Data/Excel/Proto/GachaSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFE8972-7698-4ECD-BBA5-0D1FBB4931B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0049F5D2-40FC-4722-AF61-E78C1F0FE9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="2280" yWindow="3255" windowWidth="22980" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
   <si>
     <t>int</t>
   </si>
   <si>
-    <t>#dd</t>
-  </si>
-  <si>
     <t>Num</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -59,10 +56,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Order</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -79,10 +72,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PickupCookieNum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -123,6 +112,14 @@
   </si>
   <si>
     <t>CntList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickupCookieNumList</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1057,201 +1054,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="12" width="16" customWidth="1"/>
+    <col min="1" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1001001</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>1001</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10250219</v>
-      </c>
-      <c r="B4">
-        <v>1001001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>1001</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4">
-        <v>100</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1002001</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
+        <v>20250301</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>2001</v>
       </c>
       <c r="G5">
-        <v>2001</v>
+        <v>6020</v>
       </c>
       <c r="H5">
-        <v>6001</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
       </c>
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1002002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>20250301</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>2001</v>
+      </c>
+      <c r="G6">
+        <v>6020</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>10</v>
       </c>
     </row>

--- a/Data/Excel/Proto/GachaSchedule.xlsx
+++ b/Data/Excel/Proto/GachaSchedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0049F5D2-40FC-4722-AF61-E78C1F0FE9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC59240-CF6D-493E-B55E-BA0A812F80ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3255" windowWidth="22980" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="12930" yWindow="2835" windowWidth="15600" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>int</t>
   </si>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t>PickupCookieNumList</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKey</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1054,23 +1058,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="15" width="16" customWidth="1"/>
+    <col min="1" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1084,13 +1088,13 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>22</v>
@@ -1105,25 +1109,28 @@
         <v>22</v>
       </c>
       <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
       </c>
       <c r="Q1" t="s">
         <v>20</v>
       </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1140,10 +1147,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -1158,16 +1165,16 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>17</v>
       </c>
       <c r="P2" t="s">
         <v>17</v>
@@ -1175,13 +1182,16 @@
       <c r="Q2" t="s">
         <v>17</v>
       </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1001001</v>
       </c>
@@ -1197,12 +1207,12 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
         <v>1001</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
         <v>0</v>
       </c>
@@ -1215,26 +1225,29 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>19</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>100</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1002001</v>
       </c>
@@ -1250,15 +1263,15 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
         <v>2001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>6020</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
@@ -1268,26 +1281,29 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>18</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>19</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>100</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1002002</v>
       </c>
@@ -1303,15 +1319,15 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>2001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>6020</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
@@ -1321,22 +1337,25 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>18</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>19</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>100</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>10</v>
       </c>
     </row>

--- a/Data/Excel/Proto/GachaSchedule.xlsx
+++ b/Data/Excel/Proto/GachaSchedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC59240-CF6D-493E-B55E-BA0A812F80ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79535C9-A328-4C9E-B279-1FFEF48F7092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12930" yWindow="2835" windowWidth="15600" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="20310" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ticket" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
   <si>
     <t>int</t>
   </si>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>NameKey</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGSprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileBG</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1058,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1082,7 @@
     <col min="15" max="16" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1129,8 +1137,11 @@
       <c r="R1" t="s">
         <v>20</v>
       </c>
+      <c r="S1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1185,13 +1196,16 @@
       <c r="R2" t="s">
         <v>17</v>
       </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1001001</v>
       </c>
@@ -1246,8 +1260,11 @@
       <c r="R4">
         <v>10</v>
       </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1002001</v>
       </c>
@@ -1302,8 +1319,11 @@
       <c r="R5">
         <v>10</v>
       </c>
+      <c r="S5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1002002</v>
       </c>
@@ -1357,6 +1377,9 @@
       </c>
       <c r="R6">
         <v>10</v>
+      </c>
+      <c r="S6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excel/Proto/GachaSchedule.xlsx
+++ b/Data/Excel/Proto/GachaSchedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79535C9-A328-4C9E-B279-1FFEF48F7092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C7892-96E0-4E10-8D58-FDE30C6CC1E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="20310" windowHeight="11295" xr2:uid="{B69D90B2-837F-4F1C-A343-AB9C9731F0BF}"/>
   </bookViews>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEB70FA-D65F-432A-8185-F0281658762C}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1077,7 @@
     <col min="1" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
     <col min="14" max="14" width="14.140625" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
   </cols>
